--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H2">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N2">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O2">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P2">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q2">
-        <v>2.716067547961948</v>
+        <v>3.25411664926</v>
       </c>
       <c r="R2">
-        <v>2.716067547961948</v>
+        <v>29.28704984334</v>
       </c>
       <c r="S2">
-        <v>0.01697377363724751</v>
+        <v>0.01868977771982988</v>
       </c>
       <c r="T2">
-        <v>0.01697377363724751</v>
+        <v>0.01868977771982988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H3">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N3">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O3">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P3">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q3">
-        <v>29.65375317174964</v>
+        <v>30.01100765911833</v>
       </c>
       <c r="R3">
-        <v>29.65375317174964</v>
+        <v>270.099068932065</v>
       </c>
       <c r="S3">
-        <v>0.1853179587561349</v>
+        <v>0.1723659975202747</v>
       </c>
       <c r="T3">
-        <v>0.1853179587561349</v>
+        <v>0.1723659975202747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H4">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N4">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O4">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P4">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q4">
-        <v>31.20920202221474</v>
+        <v>39.07938131823833</v>
       </c>
       <c r="R4">
-        <v>31.20920202221474</v>
+        <v>351.714431864145</v>
       </c>
       <c r="S4">
-        <v>0.1950385699802271</v>
+        <v>0.2244495293161785</v>
       </c>
       <c r="T4">
-        <v>0.1950385699802271</v>
+        <v>0.2244495293161785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H5">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N5">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O5">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P5">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q5">
-        <v>39.09627739905991</v>
+        <v>40.16509886038499</v>
       </c>
       <c r="R5">
-        <v>39.09627739905991</v>
+        <v>361.485889743465</v>
       </c>
       <c r="S5">
-        <v>0.2443280039661135</v>
+        <v>0.230685267526072</v>
       </c>
       <c r="T5">
-        <v>0.2443280039661135</v>
+        <v>0.230685267526072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H6">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N6">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O6">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P6">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q6">
-        <v>29.18877221131078</v>
+        <v>29.88572600674167</v>
       </c>
       <c r="R6">
-        <v>29.18877221131078</v>
+        <v>268.971534060675</v>
       </c>
       <c r="S6">
-        <v>0.1824121099770641</v>
+        <v>0.171646451638038</v>
       </c>
       <c r="T6">
-        <v>0.1824121099770641</v>
+        <v>0.171646451638038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.514794999999999</v>
+      </c>
+      <c r="H7">
+        <v>22.544385</v>
+      </c>
+      <c r="I7">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="J7">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.038640666666667</v>
+      </c>
+      <c r="N7">
+        <v>12.115922</v>
+      </c>
+      <c r="O7">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="P7">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="Q7">
+        <v>30.34955668866333</v>
+      </c>
+      <c r="R7">
+        <v>273.14601019797</v>
+      </c>
+      <c r="S7">
+        <v>0.174310428771963</v>
+      </c>
+      <c r="T7">
+        <v>0.174310428771963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.178432</v>
+      </c>
+      <c r="I8">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J8">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.433028</v>
+      </c>
+      <c r="N8">
+        <v>1.299084</v>
+      </c>
+      <c r="O8">
+        <v>0.01883770166710565</v>
+      </c>
+      <c r="P8">
+        <v>0.01883770166710565</v>
+      </c>
+      <c r="Q8">
+        <v>0.02575535069866667</v>
+      </c>
+      <c r="R8">
+        <v>0.231798156288</v>
+      </c>
+      <c r="S8">
+        <v>0.0001479239472757711</v>
+      </c>
+      <c r="T8">
+        <v>0.0001479239472757712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.178432</v>
+      </c>
+      <c r="I9">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J9">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.993589666666667</v>
+      </c>
+      <c r="N9">
+        <v>11.980769</v>
+      </c>
+      <c r="O9">
+        <v>0.1737302223447504</v>
+      </c>
+      <c r="P9">
+        <v>0.1737302223447504</v>
+      </c>
+      <c r="Q9">
+        <v>0.2375280638008889</v>
+      </c>
+      <c r="R9">
+        <v>2.137752574208</v>
+      </c>
+      <c r="S9">
+        <v>0.001364224824475702</v>
+      </c>
+      <c r="T9">
+        <v>0.001364224824475703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.178432</v>
+      </c>
+      <c r="I10">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J10">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.200325666666667</v>
+      </c>
+      <c r="N10">
+        <v>15.600977</v>
+      </c>
+      <c r="O10">
+        <v>0.2262259795682011</v>
+      </c>
+      <c r="P10">
+        <v>0.2262259795682011</v>
+      </c>
+      <c r="Q10">
+        <v>0.3093015031182222</v>
+      </c>
+      <c r="R10">
+        <v>2.783713528064</v>
+      </c>
+      <c r="S10">
+        <v>0.001776450252022593</v>
+      </c>
+      <c r="T10">
+        <v>0.001776450252022593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.178432</v>
+      </c>
+      <c r="I11">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J11">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.344803</v>
+      </c>
+      <c r="N11">
+        <v>16.034409</v>
+      </c>
+      <c r="O11">
+        <v>0.2325110717631453</v>
+      </c>
+      <c r="P11">
+        <v>0.2325110717631453</v>
+      </c>
+      <c r="Q11">
+        <v>0.317894629632</v>
+      </c>
+      <c r="R11">
+        <v>2.861051666688</v>
+      </c>
+      <c r="S11">
+        <v>0.001825804237073315</v>
+      </c>
+      <c r="T11">
+        <v>0.001825804237073315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="H7">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.77232278369069</v>
-      </c>
-      <c r="N7">
-        <v>3.77232278369069</v>
-      </c>
-      <c r="O7">
-        <v>0.1759295836832129</v>
-      </c>
-      <c r="P7">
-        <v>0.1759295836832129</v>
-      </c>
-      <c r="Q7">
-        <v>28.15146726829551</v>
-      </c>
-      <c r="R7">
-        <v>28.15146726829551</v>
-      </c>
-      <c r="S7">
-        <v>0.1759295836832129</v>
-      </c>
-      <c r="T7">
-        <v>0.1759295836832129</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.178432</v>
+      </c>
+      <c r="I12">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J12">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.976918333333334</v>
+      </c>
+      <c r="N12">
+        <v>11.930755</v>
+      </c>
+      <c r="O12">
+        <v>0.1730049814741227</v>
+      </c>
+      <c r="P12">
+        <v>0.1730049814741226</v>
+      </c>
+      <c r="Q12">
+        <v>0.2365364973511111</v>
+      </c>
+      <c r="R12">
+        <v>2.12882847616</v>
+      </c>
+      <c r="S12">
+        <v>0.001358529836084613</v>
+      </c>
+      <c r="T12">
+        <v>0.001358529836084613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.178432</v>
+      </c>
+      <c r="I13">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J13">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.038640666666667</v>
+      </c>
+      <c r="N13">
+        <v>12.115922</v>
+      </c>
+      <c r="O13">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="P13">
+        <v>0.1756900431826749</v>
+      </c>
+      <c r="Q13">
+        <v>0.2402075771448889</v>
+      </c>
+      <c r="R13">
+        <v>2.161868194304</v>
+      </c>
+      <c r="S13">
+        <v>0.001379614410711975</v>
+      </c>
+      <c r="T13">
+        <v>0.001379614410711975</v>
       </c>
     </row>
   </sheetData>
